--- a/downloaded_files/MTHS300_Tutorial-35149.xlsx
+++ b/downloaded_files/MTHS300_Tutorial-35149.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -148,15 +148,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed hassan abd el wahab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220082</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد صلاح الدين مصطفى عبدالحميد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mohamed salah eldin mostafa</x:t>
   </x:si>
   <x:si>
     <x:t>1220085</x:t>
@@ -281,7 +272,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -581,7 +572,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T16"/>
+  <x:dimension ref="A1:T15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1088,7 +1079,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6652256134</x:v>
+        <x:v>45915.0332367245</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1105,38 +1096,6 @@
       <x:c r="R15" s="2" t="s"/>
       <x:c r="S15" s="2" t="s"/>
       <x:c r="T15" s="2" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:20">
-      <x:c r="A16" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B16" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C16" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E16" s="3">
-        <x:v>45915.0332367245</x:v>
-      </x:c>
-      <x:c r="F16" s="2" t="s"/>
-      <x:c r="G16" s="2" t="s"/>
-      <x:c r="H16" s="2" t="s"/>
-      <x:c r="I16" s="2" t="s"/>
-      <x:c r="J16" s="2" t="s"/>
-      <x:c r="K16" s="2" t="s"/>
-      <x:c r="L16" s="2" t="s"/>
-      <x:c r="M16" s="2" t="s"/>
-      <x:c r="N16" s="2" t="s"/>
-      <x:c r="O16" s="2" t="s"/>
-      <x:c r="P16" s="2" t="s"/>
-      <x:c r="Q16" s="2" t="s"/>
-      <x:c r="R16" s="2" t="s"/>
-      <x:c r="S16" s="2" t="s"/>
-      <x:c r="T16" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS300_Tutorial-35149.xlsx
+++ b/downloaded_files/MTHS300_Tutorial-35149.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>Ali Khaled Hassan Abdelaziz Elafifi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1125371</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر احمد حامد امين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ahmed Hamed Amin</x:t>
   </x:si>
   <x:si>
     <x:t>1230212</x:t>
@@ -272,7 +281,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -572,7 +581,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T15"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -582,7 +591,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.880625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="51.780625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -919,7 +928,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4213738079</x:v>
+        <x:v>45928.4486361458</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -951,7 +960,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4147381134</x:v>
+        <x:v>45907.4213738079</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -983,7 +992,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4146840278</x:v>
+        <x:v>45906.4147381134</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1015,7 +1024,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4152352199</x:v>
+        <x:v>45906.4146840278</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1047,7 +1056,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45915.0330321759</x:v>
+        <x:v>45907.4152352199</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1079,7 +1088,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.0332367245</x:v>
+        <x:v>45915.0330321759</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1096,6 +1105,38 @@
       <x:c r="R15" s="2" t="s"/>
       <x:c r="S15" s="2" t="s"/>
       <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45915.0332367245</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS300_Tutorial-35149.xlsx
+++ b/downloaded_files/MTHS300_Tutorial-35149.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,15 +94,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman mohammed mostafa eissa mohammed eissa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220185</x:t>
-  </x:si>
-  <x:si>
-    <x:t>علي خالد حسن عبدالعزيز العفيفي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Khaled Hassan Abdelaziz Elafifi</x:t>
   </x:si>
   <x:si>
     <x:t>1125371</x:t>
@@ -281,7 +272,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -581,7 +572,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T16"/>
+  <x:dimension ref="A1:T15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -896,7 +887,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6644450579</x:v>
+        <x:v>45928.4486361458</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -928,7 +919,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45928.4486361458</x:v>
+        <x:v>45907.4213738079</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -960,7 +951,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4213738079</x:v>
+        <x:v>45906.4147381134</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -992,7 +983,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4147381134</x:v>
+        <x:v>45906.4146840278</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1024,7 +1015,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4146840278</x:v>
+        <x:v>45907.4152352199</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1056,7 +1047,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4152352199</x:v>
+        <x:v>45915.0330321759</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1088,7 +1079,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.0330321759</x:v>
+        <x:v>45915.0332367245</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1105,38 +1096,6 @@
       <x:c r="R15" s="2" t="s"/>
       <x:c r="S15" s="2" t="s"/>
       <x:c r="T15" s="2" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:20">
-      <x:c r="A16" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B16" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C16" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E16" s="3">
-        <x:v>45915.0332367245</x:v>
-      </x:c>
-      <x:c r="F16" s="2" t="s"/>
-      <x:c r="G16" s="2" t="s"/>
-      <x:c r="H16" s="2" t="s"/>
-      <x:c r="I16" s="2" t="s"/>
-      <x:c r="J16" s="2" t="s"/>
-      <x:c r="K16" s="2" t="s"/>
-      <x:c r="L16" s="2" t="s"/>
-      <x:c r="M16" s="2" t="s"/>
-      <x:c r="N16" s="2" t="s"/>
-      <x:c r="O16" s="2" t="s"/>
-      <x:c r="P16" s="2" t="s"/>
-      <x:c r="Q16" s="2" t="s"/>
-      <x:c r="R16" s="2" t="s"/>
-      <x:c r="S16" s="2" t="s"/>
-      <x:c r="T16" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
